--- a/hydroelectric_power/TD/TD3/Copie de Exercise template.xlsx
+++ b/hydroelectric_power/TD/TD3/Copie de Exercise template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848"/>
   </bookViews>
   <sheets>
     <sheet name="Mean Year" sheetId="1" r:id="rId1"/>
@@ -989,9 +989,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1000,9 +997,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,6 +1033,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10180,8 +10180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10200,18 +10200,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="88"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -10226,11 +10226,11 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -10328,20 +10328,20 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="38" t="s">
         <v>45</v>
       </c>
@@ -10374,7 +10374,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
@@ -11586,11 +11586,11 @@
       <c r="A38" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="10" t="s">
         <v>22</v>
       </c>
@@ -11604,11 +11604,11 @@
       <c r="A39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="10" t="s">
         <v>16</v>
       </c>
@@ -11622,11 +11622,11 @@
       <c r="A40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="10" t="s">
         <v>16</v>
       </c>
@@ -11640,11 +11640,11 @@
       <c r="A41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="10" t="s">
         <v>16</v>
       </c>
@@ -11658,11 +11658,11 @@
       <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="80"/>
       <c r="E42" s="10" t="s">
         <v>16</v>
       </c>
@@ -11676,11 +11676,11 @@
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="80"/>
       <c r="E43" s="10" t="s">
         <v>17</v>
       </c>
@@ -11694,11 +11694,11 @@
       <c r="A44" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="10" t="s">
         <v>18</v>
       </c>
@@ -11712,11 +11712,11 @@
       <c r="A45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="81"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="10" t="s">
         <v>19</v>
       </c>
@@ -11742,33 +11742,33 @@
       <c r="A47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
@@ -11868,6 +11868,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:I47"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="A1:J1"/>
@@ -11876,13 +11883,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11894,8 +11894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11914,18 +11914,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="88"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -11940,11 +11940,11 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -12042,20 +12042,20 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="38" t="s">
         <v>45</v>
       </c>
@@ -12088,7 +12088,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
@@ -13297,11 +13297,11 @@
       <c r="A38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="11" t="s">
         <v>22</v>
       </c>
@@ -13315,11 +13315,11 @@
       <c r="A39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="11" t="s">
         <v>16</v>
       </c>
@@ -13333,11 +13333,11 @@
       <c r="A40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="11" t="s">
         <v>16</v>
       </c>
@@ -13351,11 +13351,11 @@
       <c r="A41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="11" t="s">
         <v>16</v>
       </c>
@@ -13369,11 +13369,11 @@
       <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="80"/>
       <c r="E42" s="11" t="s">
         <v>16</v>
       </c>
@@ -13387,11 +13387,11 @@
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="80"/>
       <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
@@ -13405,11 +13405,11 @@
       <c r="A44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="11" t="s">
         <v>18</v>
       </c>
@@ -13423,11 +13423,11 @@
       <c r="A45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="81"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="11" t="s">
         <v>19</v>
       </c>
@@ -13453,33 +13453,33 @@
       <c r="A47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
@@ -13579,6 +13579,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B47:I47"/>
     <mergeCell ref="B48:J48"/>
@@ -13588,12 +13594,6 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13605,8 +13605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E34"/>
+    <sheetView zoomScale="55" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13625,18 +13625,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="88"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -13651,11 +13651,11 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -13753,20 +13753,20 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="38" t="s">
         <v>45</v>
       </c>
@@ -13799,7 +13799,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
@@ -15014,11 +15014,11 @@
       <c r="A38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="11" t="s">
         <v>22</v>
       </c>
@@ -15032,11 +15032,11 @@
       <c r="A39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="11" t="s">
         <v>16</v>
       </c>
@@ -15050,11 +15050,11 @@
       <c r="A40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="11" t="s">
         <v>16</v>
       </c>
@@ -15068,11 +15068,11 @@
       <c r="A41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="11" t="s">
         <v>16</v>
       </c>
@@ -15086,11 +15086,11 @@
       <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="80"/>
       <c r="E42" s="11" t="s">
         <v>16</v>
       </c>
@@ -15104,11 +15104,11 @@
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="80"/>
       <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
@@ -15122,11 +15122,11 @@
       <c r="A44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="11" t="s">
         <v>18</v>
       </c>
@@ -15140,11 +15140,11 @@
       <c r="A45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="81"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="11" t="s">
         <v>19</v>
       </c>
@@ -15170,33 +15170,33 @@
       <c r="A47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
@@ -15296,6 +15296,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B47:I47"/>
     <mergeCell ref="B48:J48"/>
@@ -15305,12 +15311,6 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15322,8 +15322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15342,18 +15342,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="88"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -15368,11 +15368,11 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -15470,20 +15470,20 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="38" t="s">
         <v>45</v>
       </c>
@@ -15516,7 +15516,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
@@ -16731,11 +16731,11 @@
       <c r="A38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="11" t="s">
         <v>22</v>
       </c>
@@ -16749,11 +16749,11 @@
       <c r="A39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="11" t="s">
         <v>16</v>
       </c>
@@ -16767,11 +16767,11 @@
       <c r="A40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="11" t="s">
         <v>16</v>
       </c>
@@ -16785,11 +16785,11 @@
       <c r="A41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="11" t="s">
         <v>16</v>
       </c>
@@ -16803,11 +16803,11 @@
       <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="80"/>
       <c r="E42" s="11" t="s">
         <v>16</v>
       </c>
@@ -16821,11 +16821,11 @@
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="80"/>
       <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
@@ -16839,11 +16839,11 @@
       <c r="A44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="11" t="s">
         <v>18</v>
       </c>
@@ -16857,11 +16857,11 @@
       <c r="A45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="81"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="11" t="s">
         <v>19</v>
       </c>
@@ -16887,33 +16887,33 @@
       <c r="A47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
@@ -17013,6 +17013,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B47:I47"/>
     <mergeCell ref="B48:J48"/>
@@ -17022,12 +17028,6 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/hydroelectric_power/TD/TD3/Copie de Exercise template.xlsx
+++ b/hydroelectric_power/TD/TD3/Copie de Exercise template.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mean Year" sheetId="1" r:id="rId1"/>
     <sheet name="Dry Year" sheetId="2" r:id="rId2"/>
     <sheet name="Wet Year" sheetId="3" r:id="rId3"/>
     <sheet name="Maximum Operation in a Wet" sheetId="4" r:id="rId4"/>
+    <sheet name="Maximum Operation in a Wet (2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="50">
   <si>
     <t>Input data</t>
   </si>
@@ -768,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -989,6 +990,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1098,7 +1114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1284,7 +1300,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1321,7 +1337,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="576182648"/>
@@ -1404,7 +1420,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1436,7 +1452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="576186808"/>
@@ -1479,7 +1495,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1516,7 +1532,540 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Maximum Operation in a Wet (2)'!$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Denivelation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Maximum Operation in a Wet (2)'!$A$11:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Maximum Operation in a Wet (2)'!$J$11:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="7">
+                  <c:v>500.44299210916887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>498.9549245428301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>497.39311538021548</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>495.75538270055688</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>494.03954458308618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>496.81789420070754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>497.31069232862865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>497.79641040172299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>498.27511041640042</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>498.74685436907083</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>499.21170425614417</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>499.66972207403029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>500.12096981913913</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500.56550948788066</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>501.00340307666465</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>501.43471258190118</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>501.85950000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8493-4905-8FEF-4B0046D02B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="628088080"/>
+        <c:axId val="628088720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="628088080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Hours (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628088720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="628088720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Denivelation (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628088080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1568,7 +2117,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1869,7 +2418,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1907,7 +2456,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628088720"/>
@@ -1987,7 +2536,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2025,7 +2574,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628088080"/>
@@ -2073,7 +2622,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2125,7 +2674,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2156,7 +2705,7 @@
             <c:numRef>
               <c:f>'Dry Year'!$N$11:$N$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2311,7 +2860,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2348,7 +2897,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="576182648"/>
@@ -2431,11 +2980,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2463,7 +3012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="576186808"/>
@@ -2506,7 +3055,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2543,7 +3092,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2595,7 +3144,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2896,7 +3445,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2934,7 +3483,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628088720"/>
@@ -3014,7 +3563,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3052,7 +3601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628088080"/>
@@ -3100,7 +3649,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3152,7 +3701,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3338,7 +3887,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3375,7 +3924,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="576182648"/>
@@ -3458,7 +4007,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3490,7 +4039,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="576186808"/>
@@ -3533,7 +4082,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3570,7 +4119,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3622,7 +4171,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3923,7 +4472,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3961,7 +4510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628088720"/>
@@ -4041,7 +4590,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4079,7 +4628,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628088080"/>
@@ -4127,7 +4676,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4179,7 +4728,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4365,7 +4914,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4402,7 +4951,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="576182648"/>
@@ -4485,7 +5034,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4517,7 +5066,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="576186808"/>
@@ -4560,7 +5109,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4597,7 +5146,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4649,7 +5198,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4950,7 +5499,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4988,7 +5537,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628088720"/>
@@ -5068,7 +5617,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5106,7 +5655,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628088080"/>
@@ -5154,7 +5703,452 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HPP Operation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Maximum Operation in a Wet (2)'!$N$11:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-72.799999999999969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B77-4DA7-B2D4-5FFB00C251BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="576186808"/>
+        <c:axId val="576182648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="576186808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Hours (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="576182648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="576182648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Flow (m3/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="576186808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5166,6 +6160,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5485,6 +6519,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5988,7 +7062,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6504,8 +7578,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6532,8 +7606,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6634,7 +7708,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6666,10 +7740,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6709,22 +7783,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6829,8 +7904,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6962,19 +8037,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6988,6 +8064,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7007,8 +8094,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7035,8 +8122,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7137,6 +8224,509 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9542,6 +11132,509 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9801,6 +11894,87 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEC7F2A-F46B-4A4D-A5AF-D258378C7D4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD0D7AB-ED5A-4C45-B7B3-B781E93D1F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10180,8 +12354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10200,18 +12374,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -10226,11 +12400,11 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -10328,20 +12502,20 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="88"/>
     </row>
     <row r="9" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="38" t="s">
         <v>45</v>
       </c>
@@ -10374,7 +12548,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="89"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
@@ -10435,15 +12609,15 @@
         <v>46800</v>
       </c>
       <c r="H11" s="67">
-        <f t="shared" ref="H11:H15" si="0" xml:space="preserve"> 501.8595+0.007054*I11-9.04456*10^-7*I11^2+4.84154*10^-11*I11^3</f>
+        <f xml:space="preserve"> 501.8595+0.007054*I11-9.04456*10^-7*I11^2+4.84154*10^-11*I11^3</f>
         <v>524.32054518549751</v>
       </c>
       <c r="I11" s="68">
-        <f t="shared" ref="I11:I15" si="1">I12-F12/1000</f>
+        <f t="shared" ref="I11:I15" si="0">I12-F12/1000</f>
         <v>7503.8892604617849</v>
       </c>
       <c r="J11" s="69">
-        <f t="shared" ref="J11:J15" si="2">H11-$H$17</f>
+        <f t="shared" ref="J11:J15" si="1">H11-$H$17</f>
         <v>-0.4294548145024919</v>
       </c>
       <c r="L11" s="19">
@@ -10465,15 +12639,15 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D12" s="18">
-        <f t="shared" ref="D12:D34" si="3">$B$5*$B$6</f>
+        <f t="shared" ref="D12:D34" si="2">$B$5*$B$6</f>
         <v>46800</v>
       </c>
       <c r="E12" s="54">
-        <f t="shared" ref="E12:E34" si="4">-N12*$B$6</f>
+        <f t="shared" ref="E12:E34" si="3">-N12*$B$6</f>
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <f t="shared" ref="F12:F35" si="5">D12+E12</f>
+        <f t="shared" ref="F12:F35" si="4">D12+E12</f>
         <v>46800</v>
       </c>
       <c r="G12" s="57">
@@ -10481,15 +12655,15 @@
         <v>93600</v>
       </c>
       <c r="H12" s="62">
+        <f t="shared" ref="H12:H15" si="5" xml:space="preserve"> 501.8595+0.007054*I12-9.04456*10^-7*I12^2+4.84154*10^-11*I12^3</f>
+        <v>524.39858345896243</v>
+      </c>
+      <c r="I12" s="66">
         <f t="shared" si="0"/>
-        <v>524.39858345896243</v>
-      </c>
-      <c r="I12" s="66">
+        <v>7550.6892604617851</v>
+      </c>
+      <c r="J12" s="65">
         <f t="shared" si="1"/>
-        <v>7550.6892604617851</v>
-      </c>
-      <c r="J12" s="65">
-        <f t="shared" si="2"/>
         <v>-0.35141654103756537</v>
       </c>
       <c r="L12" s="19">
@@ -10511,15 +12685,15 @@
         <v>0.125</v>
       </c>
       <c r="D13" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E13" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E13" s="54">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G13" s="57">
@@ -10527,15 +12701,15 @@
         <v>140400</v>
       </c>
       <c r="H13" s="62">
+        <f t="shared" si="5"/>
+        <v>524.47746389250915</v>
+      </c>
+      <c r="I13" s="66">
         <f t="shared" si="0"/>
-        <v>524.47746389250915</v>
-      </c>
-      <c r="I13" s="66">
+        <v>7597.4892604617853</v>
+      </c>
+      <c r="J13" s="65">
         <f t="shared" si="1"/>
-        <v>7597.4892604617853</v>
-      </c>
-      <c r="J13" s="65">
-        <f t="shared" si="2"/>
         <v>-0.27253610749085055</v>
       </c>
       <c r="L13" s="19">
@@ -10557,15 +12731,15 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="D14" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E14" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E14" s="54">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G14" s="57">
@@ -10573,15 +12747,15 @@
         <v>187200</v>
       </c>
       <c r="H14" s="62">
+        <f t="shared" si="5"/>
+        <v>524.55721626254763</v>
+      </c>
+      <c r="I14" s="66">
         <f t="shared" si="0"/>
-        <v>524.55721626254763</v>
-      </c>
-      <c r="I14" s="66">
+        <v>7644.2892604617855</v>
+      </c>
+      <c r="J14" s="65">
         <f t="shared" si="1"/>
-        <v>7644.2892604617855</v>
-      </c>
-      <c r="J14" s="65">
-        <f t="shared" si="2"/>
         <v>-0.19278373745237332</v>
       </c>
       <c r="L14" s="19">
@@ -10603,15 +12777,15 @@
         <v>0.20833333333333401</v>
       </c>
       <c r="D15" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E15" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E15" s="54">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G15" s="57">
@@ -10619,15 +12793,15 @@
         <v>234000</v>
       </c>
       <c r="H15" s="62">
+        <f t="shared" si="5"/>
+        <v>524.6378703454875</v>
+      </c>
+      <c r="I15" s="66">
         <f t="shared" si="0"/>
-        <v>524.6378703454875</v>
-      </c>
-      <c r="I15" s="66">
+        <v>7691.0892604617857</v>
+      </c>
+      <c r="J15" s="65">
         <f t="shared" si="1"/>
-        <v>7691.0892604617857</v>
-      </c>
-      <c r="J15" s="65">
-        <f t="shared" si="2"/>
         <v>-0.11212965451250057</v>
       </c>
       <c r="L15" s="19">
@@ -10649,15 +12823,15 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E16" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E16" s="54">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G16" s="57">
@@ -10695,15 +12869,15 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="D17" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E17" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E17" s="54">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G17" s="57">
@@ -10740,15 +12914,15 @@
         <v>0.33333333333333398</v>
       </c>
       <c r="D18" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E18" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E18" s="54">
+        <v>-255600</v>
+      </c>
+      <c r="F18" s="18">
         <f t="shared" si="4"/>
-        <v>-255600</v>
-      </c>
-      <c r="F18" s="18">
-        <f t="shared" si="5"/>
         <v>-208800</v>
       </c>
       <c r="G18" s="57">
@@ -10789,15 +12963,15 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E19" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E19" s="54">
+        <v>-255600</v>
+      </c>
+      <c r="F19" s="18">
         <f t="shared" si="4"/>
-        <v>-255600</v>
-      </c>
-      <c r="F19" s="18">
-        <f t="shared" si="5"/>
         <v>-208800</v>
       </c>
       <c r="G19" s="57">
@@ -10838,15 +13012,15 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D20" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E20" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E20" s="54">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G20" s="57">
@@ -10884,15 +13058,15 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="D21" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E21" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E21" s="54">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G21" s="57">
@@ -10930,15 +13104,15 @@
         <v>0.5</v>
       </c>
       <c r="D22" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E22" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E22" s="54">
+        <v>-255600</v>
+      </c>
+      <c r="F22" s="18">
         <f t="shared" si="4"/>
-        <v>-255600</v>
-      </c>
-      <c r="F22" s="18">
-        <f t="shared" si="5"/>
         <v>-208800</v>
       </c>
       <c r="G22" s="57">
@@ -10979,15 +13153,15 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="D23" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E23" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E23" s="54">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G23" s="57">
@@ -11025,15 +13199,15 @@
         <v>0.58333333333333404</v>
       </c>
       <c r="D24" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E24" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E24" s="54">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G24" s="57">
@@ -11071,15 +13245,15 @@
         <v>0.625</v>
       </c>
       <c r="D25" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E25" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E25" s="54">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G25" s="57">
@@ -11117,15 +13291,15 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D26" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E26" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E26" s="54">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G26" s="57">
@@ -11163,15 +13337,15 @@
         <v>0.70833333333333404</v>
       </c>
       <c r="D27" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E27" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E27" s="54">
+        <v>-255600</v>
+      </c>
+      <c r="F27" s="18">
         <f t="shared" si="4"/>
-        <v>-255600</v>
-      </c>
-      <c r="F27" s="18">
-        <f t="shared" si="5"/>
         <v>-208800</v>
       </c>
       <c r="G27" s="57">
@@ -11212,7 +13386,7 @@
         <v>0.75</v>
       </c>
       <c r="D28" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46800</v>
       </c>
       <c r="E28" s="55">
@@ -11220,7 +13394,7 @@
         <v>-100800</v>
       </c>
       <c r="F28" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-54000</v>
       </c>
       <c r="G28" s="57">
@@ -11261,15 +13435,15 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="D29" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E29" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E29" s="54">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G29" s="57">
@@ -11307,15 +13481,15 @@
         <v>0.83333333333333404</v>
       </c>
       <c r="D30" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E30" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E30" s="54">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G30" s="57">
@@ -11353,15 +13527,15 @@
         <v>0.875</v>
       </c>
       <c r="D31" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E31" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E31" s="54">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G31" s="57">
@@ -11399,15 +13573,15 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="D32" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E32" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E32" s="54">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G32" s="57">
@@ -11445,15 +13619,15 @@
         <v>0.95833333333333404</v>
       </c>
       <c r="D33" s="18">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E33" s="54">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E33" s="54">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="18">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G33" s="57">
@@ -11491,15 +13665,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="23">
+        <f t="shared" si="2"/>
+        <v>46800</v>
+      </c>
+      <c r="E34" s="56">
         <f t="shared" si="3"/>
-        <v>46800</v>
-      </c>
-      <c r="E34" s="56">
+        <v>0</v>
+      </c>
+      <c r="F34" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="23">
-        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="G34" s="70">
@@ -11538,7 +13712,7 @@
         <v>-1022400</v>
       </c>
       <c r="F35" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100800</v>
       </c>
       <c r="H35" s="8"/>
@@ -11586,11 +13760,11 @@
       <c r="A38" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
       <c r="E38" s="10" t="s">
         <v>22</v>
       </c>
@@ -11604,11 +13778,11 @@
       <c r="A39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
       <c r="E39" s="10" t="s">
         <v>16</v>
       </c>
@@ -11622,11 +13796,11 @@
       <c r="A40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="10" t="s">
         <v>16</v>
       </c>
@@ -11640,11 +13814,11 @@
       <c r="A41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="10" t="s">
         <v>16</v>
       </c>
@@ -11658,11 +13832,11 @@
       <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
       <c r="E42" s="10" t="s">
         <v>16</v>
       </c>
@@ -11676,11 +13850,11 @@
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="10" t="s">
         <v>17</v>
       </c>
@@ -11694,11 +13868,11 @@
       <c r="A44" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="10" t="s">
         <v>18</v>
       </c>
@@ -11712,11 +13886,11 @@
       <c r="A45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="10" t="s">
         <v>19</v>
       </c>
@@ -11742,33 +13916,33 @@
       <c r="A47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
@@ -11894,8 +14068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11914,18 +14088,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -11940,11 +14114,11 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -12042,20 +14216,20 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="88"/>
     </row>
     <row r="9" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="38" t="s">
         <v>45</v>
       </c>
@@ -12088,7 +14262,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="89"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
@@ -12164,7 +14338,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="18"/>
-      <c r="N11" s="20">
+      <c r="N11" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12210,7 +14384,7 @@
         <v>2</v>
       </c>
       <c r="M12" s="18"/>
-      <c r="N12" s="20">
+      <c r="N12" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12256,7 +14430,7 @@
         <v>3</v>
       </c>
       <c r="M13" s="18"/>
-      <c r="N13" s="20">
+      <c r="N13" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12302,7 +14476,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="18"/>
-      <c r="N14" s="20">
+      <c r="N14" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12348,7 +14522,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="18"/>
-      <c r="N15" s="20">
+      <c r="N15" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12394,7 +14568,7 @@
         <v>6</v>
       </c>
       <c r="M16" s="18"/>
-      <c r="N16" s="20">
+      <c r="N16" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12439,7 +14613,7 @@
         <v>7</v>
       </c>
       <c r="M17" s="18"/>
-      <c r="N17" s="20">
+      <c r="N17" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12487,7 +14661,7 @@
       <c r="M18" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="80">
         <f>$B$4</f>
         <v>71</v>
       </c>
@@ -12534,7 +14708,7 @@
         <v>9</v>
       </c>
       <c r="M19" s="18"/>
-      <c r="N19" s="20">
+      <c r="N19" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12580,7 +14754,7 @@
         <v>10</v>
       </c>
       <c r="M20" s="18"/>
-      <c r="N20" s="20">
+      <c r="N20" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12626,7 +14800,7 @@
         <v>11</v>
       </c>
       <c r="M21" s="18"/>
-      <c r="N21" s="20">
+      <c r="N21" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12674,7 +14848,7 @@
       <c r="M22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="79">
         <f>$B$4</f>
         <v>71</v>
       </c>
@@ -12721,7 +14895,7 @@
         <v>13</v>
       </c>
       <c r="M23" s="18"/>
-      <c r="N23" s="20">
+      <c r="N23" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12767,7 +14941,7 @@
         <v>14</v>
       </c>
       <c r="M24" s="18"/>
-      <c r="N24" s="20">
+      <c r="N24" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12813,7 +14987,7 @@
         <v>15</v>
       </c>
       <c r="M25" s="18"/>
-      <c r="N25" s="20">
+      <c r="N25" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12859,7 +15033,7 @@
         <v>16</v>
       </c>
       <c r="M26" s="18"/>
-      <c r="N26" s="20">
+      <c r="N26" s="79">
         <v>0</v>
       </c>
     </row>
@@ -12907,7 +15081,7 @@
       <c r="M27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="20">
+      <c r="N27" s="79">
         <f>$B$4</f>
         <v>71</v>
       </c>
@@ -12956,7 +15130,7 @@
       <c r="M28" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N28" s="75">
         <f>-E28/$B$6</f>
         <v>27.96</v>
       </c>
@@ -13003,7 +15177,7 @@
         <v>19</v>
       </c>
       <c r="M29" s="18"/>
-      <c r="N29" s="20">
+      <c r="N29" s="79">
         <v>0</v>
       </c>
     </row>
@@ -13049,7 +15223,7 @@
         <v>20</v>
       </c>
       <c r="M30" s="18"/>
-      <c r="N30" s="20">
+      <c r="N30" s="79">
         <v>0</v>
       </c>
     </row>
@@ -13095,7 +15269,7 @@
         <v>21</v>
       </c>
       <c r="M31" s="18"/>
-      <c r="N31" s="20">
+      <c r="N31" s="79">
         <v>0</v>
       </c>
     </row>
@@ -13141,7 +15315,7 @@
         <v>22</v>
       </c>
       <c r="M32" s="18"/>
-      <c r="N32" s="20">
+      <c r="N32" s="79">
         <v>0</v>
       </c>
     </row>
@@ -13187,7 +15361,7 @@
         <v>23</v>
       </c>
       <c r="M33" s="18"/>
-      <c r="N33" s="20">
+      <c r="N33" s="79">
         <v>0</v>
       </c>
     </row>
@@ -13233,7 +15407,7 @@
         <v>24</v>
       </c>
       <c r="M34" s="23"/>
-      <c r="N34" s="24">
+      <c r="N34" s="81">
         <v>0</v>
       </c>
     </row>
@@ -13297,11 +15471,11 @@
       <c r="A38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
       <c r="E38" s="11" t="s">
         <v>22</v>
       </c>
@@ -13315,11 +15489,11 @@
       <c r="A39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
       <c r="E39" s="11" t="s">
         <v>16</v>
       </c>
@@ -13333,11 +15507,11 @@
       <c r="A40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="11" t="s">
         <v>16</v>
       </c>
@@ -13351,11 +15525,11 @@
       <c r="A41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="11" t="s">
         <v>16</v>
       </c>
@@ -13369,11 +15543,11 @@
       <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
       <c r="E42" s="11" t="s">
         <v>16</v>
       </c>
@@ -13387,11 +15561,11 @@
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
@@ -13405,11 +15579,11 @@
       <c r="A44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="11" t="s">
         <v>18</v>
       </c>
@@ -13423,11 +15597,11 @@
       <c r="A45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="11" t="s">
         <v>19</v>
       </c>
@@ -13453,33 +15627,33 @@
       <c r="A47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
@@ -13625,18 +15799,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -13651,11 +15825,11 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -13753,20 +15927,20 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="88"/>
     </row>
     <row r="9" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="38" t="s">
         <v>45</v>
       </c>
@@ -13799,7 +15973,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="89"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
@@ -15014,11 +17188,11 @@
       <c r="A38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
       <c r="E38" s="11" t="s">
         <v>22</v>
       </c>
@@ -15032,11 +17206,11 @@
       <c r="A39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
       <c r="E39" s="11" t="s">
         <v>16</v>
       </c>
@@ -15050,11 +17224,11 @@
       <c r="A40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="11" t="s">
         <v>16</v>
       </c>
@@ -15068,11 +17242,11 @@
       <c r="A41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="11" t="s">
         <v>16</v>
       </c>
@@ -15086,11 +17260,11 @@
       <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
       <c r="E42" s="11" t="s">
         <v>16</v>
       </c>
@@ -15104,11 +17278,11 @@
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
@@ -15122,11 +17296,11 @@
       <c r="A44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="11" t="s">
         <v>18</v>
       </c>
@@ -15140,11 +17314,11 @@
       <c r="A45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="11" t="s">
         <v>19</v>
       </c>
@@ -15170,33 +17344,33 @@
       <c r="A47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
@@ -15322,8 +17496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15342,18 +17516,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -15368,11 +17542,11 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -15470,20 +17644,20 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="88"/>
     </row>
     <row r="9" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="38" t="s">
         <v>45</v>
       </c>
@@ -15516,7 +17690,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="89"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
@@ -15577,15 +17751,15 @@
         <v>59760.000000000007</v>
       </c>
       <c r="H11" s="67">
-        <f t="shared" ref="H11:H15" si="0" xml:space="preserve"> 501.8595+0.007054*I11-9.04456*10^-7*I11^2+4.84154*10^-11*I11^3</f>
+        <f xml:space="preserve"> 501.8595+0.007054*I11-9.04456*10^-7*I11^2+4.84154*10^-11*I11^3</f>
         <v>524.19266335549003</v>
       </c>
       <c r="I11" s="68">
-        <f t="shared" ref="I11:I15" si="1">I12-F12/1000</f>
+        <f t="shared" ref="I11:I15" si="0">I12-F12/1000</f>
         <v>7426.1292604617847</v>
       </c>
       <c r="J11" s="69">
-        <f t="shared" ref="J11:J15" si="2">H11-$H$17</f>
+        <f>H11-$H$17</f>
         <v>-0.55733664450997367</v>
       </c>
       <c r="L11" s="19">
@@ -15607,15 +17781,15 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D12" s="18">
-        <f t="shared" ref="D12:D34" si="3">$B$5*$B$6</f>
+        <f t="shared" ref="D12:D34" si="1">$B$5*$B$6</f>
         <v>59760.000000000007</v>
       </c>
       <c r="E12" s="54">
-        <f t="shared" ref="E12:E34" si="4">-N12*$B$6</f>
+        <f t="shared" ref="E12:E34" si="2">-N12*$B$6</f>
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <f t="shared" ref="F12:F35" si="5">D12+E12</f>
+        <f t="shared" ref="F12:F35" si="3">D12+E12</f>
         <v>59760.000000000007</v>
       </c>
       <c r="G12" s="57">
@@ -15623,15 +17797,15 @@
         <v>119520.00000000001</v>
       </c>
       <c r="H12" s="62">
+        <f t="shared" ref="H12:H15" si="4" xml:space="preserve"> 501.8595+0.007054*I12-9.04456*10^-7*I12^2+4.84154*10^-11*I12^3</f>
+        <v>524.29074840649855</v>
+      </c>
+      <c r="I12" s="66">
         <f t="shared" si="0"/>
-        <v>524.29074840649855</v>
-      </c>
-      <c r="I12" s="66">
-        <f t="shared" si="1"/>
         <v>7485.8892604617849</v>
       </c>
       <c r="J12" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J12:J15" si="5">H12-$H$17</f>
         <v>-0.45925159350144895</v>
       </c>
       <c r="L12" s="19">
@@ -15653,15 +17827,15 @@
         <v>0.125</v>
       </c>
       <c r="D13" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E13" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E13" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G13" s="57">
@@ -15669,15 +17843,15 @@
         <v>179280.00000000003</v>
       </c>
       <c r="H13" s="62">
+        <f t="shared" si="4"/>
+        <v>524.39013940190523</v>
+      </c>
+      <c r="I13" s="66">
         <f t="shared" si="0"/>
-        <v>524.39013940190523</v>
-      </c>
-      <c r="I13" s="66">
-        <f t="shared" si="1"/>
         <v>7545.6492604617852</v>
       </c>
       <c r="J13" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.35986059809476956</v>
       </c>
       <c r="L13" s="19">
@@ -15699,15 +17873,15 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="D14" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E14" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E14" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G14" s="57">
@@ -15715,15 +17889,15 @@
         <v>239040.00000000003</v>
       </c>
       <c r="H14" s="62">
+        <f t="shared" si="4"/>
+        <v>524.49089833811991</v>
+      </c>
+      <c r="I14" s="66">
         <f t="shared" si="0"/>
-        <v>524.49089833811991</v>
-      </c>
-      <c r="I14" s="66">
-        <f t="shared" si="1"/>
         <v>7605.4092604617854</v>
       </c>
       <c r="J14" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.25910166188009498</v>
       </c>
       <c r="L14" s="19">
@@ -15745,15 +17919,15 @@
         <v>0.20833333333333401</v>
       </c>
       <c r="D15" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E15" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E15" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G15" s="57">
@@ -15761,15 +17935,15 @@
         <v>298800.00000000006</v>
       </c>
       <c r="H15" s="62">
+        <f t="shared" si="4"/>
+        <v>524.59308721155264</v>
+      </c>
+      <c r="I15" s="66">
         <f t="shared" si="0"/>
-        <v>524.59308721155264</v>
-      </c>
-      <c r="I15" s="66">
-        <f t="shared" si="1"/>
         <v>7665.1692604617856</v>
       </c>
       <c r="J15" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.15691278844735734</v>
       </c>
       <c r="L15" s="19">
@@ -15791,15 +17965,15 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E16" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E16" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G16" s="57">
@@ -15837,15 +18011,15 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="D17" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E17" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E17" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G17" s="57">
@@ -15882,15 +18056,15 @@
         <v>0.33333333333333398</v>
       </c>
       <c r="D18" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>59760.000000000007</v>
       </c>
       <c r="E18" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-255600</v>
       </c>
       <c r="F18" s="18">
-        <f t="shared" si="5"/>
+        <f>D18+E18</f>
         <v>-195840</v>
       </c>
       <c r="G18" s="57">
@@ -15931,15 +18105,15 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E19" s="54">
+        <f t="shared" si="2"/>
+        <v>-255600</v>
+      </c>
+      <c r="F19" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E19" s="54">
-        <f t="shared" si="4"/>
-        <v>-255600</v>
-      </c>
-      <c r="F19" s="18">
-        <f t="shared" si="5"/>
         <v>-195840</v>
       </c>
       <c r="G19" s="57">
@@ -15980,15 +18154,15 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D20" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E20" s="54">
+        <f t="shared" si="2"/>
+        <v>-255600</v>
+      </c>
+      <c r="F20" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E20" s="54">
-        <f t="shared" si="4"/>
-        <v>-255600</v>
-      </c>
-      <c r="F20" s="18">
-        <f t="shared" si="5"/>
         <v>-195840</v>
       </c>
       <c r="G20" s="57">
@@ -16029,15 +18203,15 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="D21" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E21" s="54">
+        <f t="shared" si="2"/>
+        <v>-255600</v>
+      </c>
+      <c r="F21" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E21" s="54">
-        <f t="shared" si="4"/>
-        <v>-255600</v>
-      </c>
-      <c r="F21" s="18">
-        <f t="shared" si="5"/>
         <v>-195840</v>
       </c>
       <c r="G21" s="57">
@@ -16078,15 +18252,15 @@
         <v>0.5</v>
       </c>
       <c r="D22" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E22" s="54">
+        <f t="shared" si="2"/>
+        <v>-255600</v>
+      </c>
+      <c r="F22" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E22" s="54">
-        <f t="shared" si="4"/>
-        <v>-255600</v>
-      </c>
-      <c r="F22" s="18">
-        <f t="shared" si="5"/>
         <v>-195840</v>
       </c>
       <c r="G22" s="57">
@@ -16127,7 +18301,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="D23" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>59760.000000000007</v>
       </c>
       <c r="E23" s="55">
@@ -16135,7 +18309,7 @@
         <v>-156240.00000000023</v>
       </c>
       <c r="F23" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-96480.000000000233</v>
       </c>
       <c r="G23" s="57">
@@ -16176,15 +18350,15 @@
         <v>0.58333333333333404</v>
       </c>
       <c r="D24" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E24" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E24" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G24" s="57">
@@ -16222,15 +18396,15 @@
         <v>0.625</v>
       </c>
       <c r="D25" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E25" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E25" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G25" s="57">
@@ -16268,15 +18442,15 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D26" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E26" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E26" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G26" s="57">
@@ -16314,15 +18488,15 @@
         <v>0.70833333333333404</v>
       </c>
       <c r="D27" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E27" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E27" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G27" s="57">
@@ -16360,14 +18534,14 @@
         <v>0.75</v>
       </c>
       <c r="D28" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>59760.000000000007</v>
       </c>
       <c r="E28" s="77">
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G28" s="57">
@@ -16406,15 +18580,15 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="D29" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E29" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E29" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G29" s="57">
@@ -16452,15 +18626,15 @@
         <v>0.83333333333333404</v>
       </c>
       <c r="D30" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E30" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E30" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G30" s="57">
@@ -16498,15 +18672,15 @@
         <v>0.875</v>
       </c>
       <c r="D31" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E31" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E31" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G31" s="57">
@@ -16544,15 +18718,15 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="D32" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E32" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E32" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G32" s="57">
@@ -16590,15 +18764,15 @@
         <v>0.95833333333333404</v>
       </c>
       <c r="D33" s="18">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E33" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E33" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="18">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G33" s="57">
@@ -16636,15 +18810,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="23">
+        <f t="shared" si="1"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E34" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="23">
         <f t="shared" si="3"/>
-        <v>59760.000000000007</v>
-      </c>
-      <c r="E34" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="23">
-        <f t="shared" si="5"/>
         <v>59760.000000000007</v>
       </c>
       <c r="G34" s="70">
@@ -16683,7 +18857,7 @@
         <v>-1278000</v>
       </c>
       <c r="F35" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>156240.00000000023</v>
       </c>
       <c r="H35" s="8"/>
@@ -16731,11 +18905,11 @@
       <c r="A38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
       <c r="E38" s="11" t="s">
         <v>22</v>
       </c>
@@ -16749,11 +18923,11 @@
       <c r="A39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
       <c r="E39" s="11" t="s">
         <v>16</v>
       </c>
@@ -16767,11 +18941,11 @@
       <c r="A40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="11" t="s">
         <v>16</v>
       </c>
@@ -16785,11 +18959,11 @@
       <c r="A41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="11" t="s">
         <v>16</v>
       </c>
@@ -16803,11 +18977,11 @@
       <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
       <c r="E42" s="11" t="s">
         <v>16</v>
       </c>
@@ -16821,11 +18995,11 @@
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
@@ -16839,11 +19013,11 @@
       <c r="A44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="11" t="s">
         <v>18</v>
       </c>
@@ -16857,11 +19031,11 @@
       <c r="A45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="11" t="s">
         <v>19</v>
       </c>
@@ -16887,33 +19061,1588 @@
       <c r="A47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O56"/>
+  <sheetViews>
+    <sheetView topLeftCell="H9" zoomScale="98" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:J48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="29">
+        <v>71</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="30">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="30">
+        <v>3600</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="30">
+        <v>524.75</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="L8" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="87"/>
+      <c r="N8" s="88"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="94"/>
+      <c r="B10" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="44">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="L11" s="19">
+        <v>1</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="45">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="65"/>
+      <c r="L12" s="19">
+        <v>2</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="45">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="65"/>
+      <c r="L13" s="19">
+        <v>3</v>
+      </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="45">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="65"/>
+      <c r="L14" s="19">
+        <v>4</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="45">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.20833333333333401</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="65"/>
+      <c r="L15" s="19">
+        <v>5</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="45">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.20833333333333401</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="65"/>
+      <c r="L16" s="19">
+        <v>6</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="45">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="82"/>
+      <c r="L17" s="19">
+        <v>7</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="45">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.33333333333333398</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" ref="D18:D34" si="0">$B$5*$B$6</f>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E18" s="54">
+        <f t="shared" ref="E18:E34" si="1">-N18*$B$6</f>
+        <v>-255600</v>
+      </c>
+      <c r="F18" s="18">
+        <f>D18+E18</f>
+        <v>-195840</v>
+      </c>
+      <c r="G18" s="57">
+        <f t="shared" ref="G18:G34" si="2">G17+F18</f>
+        <v>-195840</v>
+      </c>
+      <c r="H18" s="62">
+        <f xml:space="preserve"> 501.8595+0.007054*I18-9.04456*10^-7*I18^2+4.84154*10^-11*I18^3</f>
+        <v>500.44299210916887</v>
+      </c>
+      <c r="I18" s="64">
+        <f>I17+F18/1000</f>
+        <v>-195.84</v>
+      </c>
+      <c r="J18" s="65">
+        <f>H18-$H$17</f>
+        <v>500.44299210916887</v>
+      </c>
+      <c r="L18" s="59">
+        <v>8</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="21">
+        <f>$B$4</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="45">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.33333333333333398</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E19" s="54">
+        <f t="shared" si="1"/>
+        <v>-255600</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" ref="F19:F35" si="3">D19+E19</f>
+        <v>-195840</v>
+      </c>
+      <c r="G19" s="57">
+        <f t="shared" si="2"/>
+        <v>-391680</v>
+      </c>
+      <c r="H19" s="62">
+        <f t="shared" ref="H19:H34" si="4" xml:space="preserve"> 501.8595+0.007054*I19-9.04456*10^-7*I19^2+4.84154*10^-11*I19^3</f>
+        <v>498.9549245428301</v>
+      </c>
+      <c r="I19" s="64">
+        <f t="shared" ref="I19:I34" si="5">I18+F19/1000</f>
+        <v>-391.68</v>
+      </c>
+      <c r="J19" s="65">
+        <f t="shared" ref="J19:J34" si="6">H19-$H$17</f>
+        <v>498.9549245428301</v>
+      </c>
+      <c r="L19" s="19">
+        <v>9</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="20">
+        <f>$B$4</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="45">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E20" s="54">
+        <f t="shared" si="1"/>
+        <v>-255600</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="3"/>
+        <v>-195840</v>
+      </c>
+      <c r="G20" s="57">
+        <f t="shared" si="2"/>
+        <v>-587520</v>
+      </c>
+      <c r="H20" s="62">
+        <f t="shared" si="4"/>
+        <v>497.39311538021548</v>
+      </c>
+      <c r="I20" s="64">
+        <f t="shared" si="5"/>
+        <v>-587.52</v>
+      </c>
+      <c r="J20" s="65">
+        <f t="shared" si="6"/>
+        <v>497.39311538021548</v>
+      </c>
+      <c r="L20" s="19">
+        <v>10</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="20">
+        <f>B4</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="45">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E21" s="54">
+        <f t="shared" si="1"/>
+        <v>-255600</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="3"/>
+        <v>-195840</v>
+      </c>
+      <c r="G21" s="57">
+        <f t="shared" si="2"/>
+        <v>-783360</v>
+      </c>
+      <c r="H21" s="62">
+        <f t="shared" si="4"/>
+        <v>495.75538270055688</v>
+      </c>
+      <c r="I21" s="64">
+        <f t="shared" si="5"/>
+        <v>-783.36</v>
+      </c>
+      <c r="J21" s="65">
+        <f t="shared" si="6"/>
+        <v>495.75538270055688</v>
+      </c>
+      <c r="L21" s="19">
+        <v>11</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="20">
+        <f>B4</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="45">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E22" s="54">
+        <f t="shared" si="1"/>
+        <v>-255600</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" si="3"/>
+        <v>-195840</v>
+      </c>
+      <c r="G22" s="57">
+        <f t="shared" si="2"/>
+        <v>-979200</v>
+      </c>
+      <c r="H22" s="62">
+        <f t="shared" si="4"/>
+        <v>494.03954458308618</v>
+      </c>
+      <c r="I22" s="64">
+        <f t="shared" si="5"/>
+        <v>-979.2</v>
+      </c>
+      <c r="J22" s="65">
+        <f t="shared" si="6"/>
+        <v>494.03954458308618</v>
+      </c>
+      <c r="L22" s="19">
+        <v>12</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" s="20">
+        <f>$B$4</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="45">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D23" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E23" s="55">
+        <f>-E36</f>
+        <v>262079.99999999988</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="3"/>
+        <v>321839.99999999988</v>
+      </c>
+      <c r="G23" s="57">
+        <f t="shared" si="2"/>
+        <v>-657360.00000000012</v>
+      </c>
+      <c r="H23" s="62">
+        <f t="shared" si="4"/>
+        <v>496.81789420070754</v>
+      </c>
+      <c r="I23" s="64">
+        <f t="shared" si="5"/>
+        <v>-657.36000000000013</v>
+      </c>
+      <c r="J23" s="65">
+        <f t="shared" si="6"/>
+        <v>496.81789420070754</v>
+      </c>
+      <c r="L23" s="19">
+        <v>13</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="28">
+        <f>-E23/$B$6</f>
+        <v>-72.799999999999969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="45">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="D24" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E24" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
+        <f t="shared" si="3"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="G24" s="57">
+        <f t="shared" si="2"/>
+        <v>-597600.00000000012</v>
+      </c>
+      <c r="H24" s="62">
+        <f t="shared" si="4"/>
+        <v>497.31069232862865</v>
+      </c>
+      <c r="I24" s="64">
+        <f t="shared" si="5"/>
+        <v>-597.60000000000014</v>
+      </c>
+      <c r="J24" s="65">
+        <f t="shared" si="6"/>
+        <v>497.31069232862865</v>
+      </c>
+      <c r="L24" s="19">
+        <v>14</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="45">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D25" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E25" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <f t="shared" si="3"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="G25" s="57">
+        <f t="shared" si="2"/>
+        <v>-537840.00000000012</v>
+      </c>
+      <c r="H25" s="62">
+        <f t="shared" si="4"/>
+        <v>497.79641040172299</v>
+      </c>
+      <c r="I25" s="64">
+        <f t="shared" si="5"/>
+        <v>-537.84000000000015</v>
+      </c>
+      <c r="J25" s="65">
+        <f t="shared" si="6"/>
+        <v>497.79641040172299</v>
+      </c>
+      <c r="L25" s="19">
+        <v>15</v>
+      </c>
+      <c r="M25" s="18"/>
+      <c r="N25" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="45">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D26" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E26" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <f t="shared" si="3"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="G26" s="57">
+        <f t="shared" si="2"/>
+        <v>-478080.00000000012</v>
+      </c>
+      <c r="H26" s="62">
+        <f t="shared" si="4"/>
+        <v>498.27511041640042</v>
+      </c>
+      <c r="I26" s="64">
+        <f t="shared" si="5"/>
+        <v>-478.08000000000015</v>
+      </c>
+      <c r="J26" s="65">
+        <f t="shared" si="6"/>
+        <v>498.27511041640042</v>
+      </c>
+      <c r="L26" s="19">
+        <v>16</v>
+      </c>
+      <c r="M26" s="18"/>
+      <c r="N26" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="45">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E27" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" si="3"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="G27" s="57">
+        <f t="shared" si="2"/>
+        <v>-418320.00000000012</v>
+      </c>
+      <c r="H27" s="62">
+        <f t="shared" si="4"/>
+        <v>498.74685436907083</v>
+      </c>
+      <c r="I27" s="64">
+        <f t="shared" si="5"/>
+        <v>-418.32000000000016</v>
+      </c>
+      <c r="J27" s="65">
+        <f t="shared" si="6"/>
+        <v>498.74685436907083</v>
+      </c>
+      <c r="L27" s="19">
+        <v>17</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="N27" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="45">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E28" s="77">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <f t="shared" si="3"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="G28" s="57">
+        <f t="shared" si="2"/>
+        <v>-358560.00000000012</v>
+      </c>
+      <c r="H28" s="62">
+        <f t="shared" si="4"/>
+        <v>499.21170425614417</v>
+      </c>
+      <c r="I28" s="64">
+        <f t="shared" si="5"/>
+        <v>-358.56000000000017</v>
+      </c>
+      <c r="J28" s="65">
+        <f t="shared" si="6"/>
+        <v>499.21170425614417</v>
+      </c>
+      <c r="L28" s="19">
+        <v>18</v>
+      </c>
+      <c r="M28" s="18"/>
+      <c r="N28" s="76">
+        <f>-E28/$B$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="45">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D29" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E29" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <f t="shared" si="3"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="G29" s="57">
+        <f t="shared" si="2"/>
+        <v>-298800.00000000012</v>
+      </c>
+      <c r="H29" s="62">
+        <f t="shared" si="4"/>
+        <v>499.66972207403029</v>
+      </c>
+      <c r="I29" s="64">
+        <f t="shared" si="5"/>
+        <v>-298.80000000000018</v>
+      </c>
+      <c r="J29" s="65">
+        <f t="shared" si="6"/>
+        <v>499.66972207403029</v>
+      </c>
+      <c r="L29" s="19">
+        <v>19</v>
+      </c>
+      <c r="M29" s="18"/>
+      <c r="N29" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="45">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="D30" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E30" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <f t="shared" si="3"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="G30" s="57">
+        <f t="shared" si="2"/>
+        <v>-239040.00000000012</v>
+      </c>
+      <c r="H30" s="62">
+        <f t="shared" si="4"/>
+        <v>500.12096981913913</v>
+      </c>
+      <c r="I30" s="64">
+        <f t="shared" si="5"/>
+        <v>-239.04000000000019</v>
+      </c>
+      <c r="J30" s="65">
+        <f t="shared" si="6"/>
+        <v>500.12096981913913</v>
+      </c>
+      <c r="L30" s="19">
+        <v>20</v>
+      </c>
+      <c r="M30" s="18"/>
+      <c r="N30" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="45">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D31" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E31" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <f t="shared" si="3"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="G31" s="57">
+        <f t="shared" si="2"/>
+        <v>-179280.00000000012</v>
+      </c>
+      <c r="H31" s="62">
+        <f t="shared" si="4"/>
+        <v>500.56550948788066</v>
+      </c>
+      <c r="I31" s="64">
+        <f t="shared" si="5"/>
+        <v>-179.2800000000002</v>
+      </c>
+      <c r="J31" s="65">
+        <f t="shared" si="6"/>
+        <v>500.56550948788066</v>
+      </c>
+      <c r="L31" s="19">
+        <v>21</v>
+      </c>
+      <c r="M31" s="18"/>
+      <c r="N31" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="45">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D32" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E32" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <f t="shared" si="3"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="G32" s="57">
+        <f t="shared" si="2"/>
+        <v>-119520.00000000012</v>
+      </c>
+      <c r="H32" s="62">
+        <f t="shared" si="4"/>
+        <v>501.00340307666465</v>
+      </c>
+      <c r="I32" s="64">
+        <f t="shared" si="5"/>
+        <v>-119.52000000000019</v>
+      </c>
+      <c r="J32" s="65">
+        <f t="shared" si="6"/>
+        <v>501.00340307666465</v>
+      </c>
+      <c r="L32" s="19">
+        <v>22</v>
+      </c>
+      <c r="M32" s="18"/>
+      <c r="N32" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="45">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="D33" s="18">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E33" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <f t="shared" si="3"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="G33" s="57">
+        <f t="shared" si="2"/>
+        <v>-59760.000000000109</v>
+      </c>
+      <c r="H33" s="62">
+        <f t="shared" si="4"/>
+        <v>501.43471258190118</v>
+      </c>
+      <c r="I33" s="64">
+        <f t="shared" si="5"/>
+        <v>-59.76000000000019</v>
+      </c>
+      <c r="J33" s="65">
+        <f t="shared" si="6"/>
+        <v>501.43471258190118</v>
+      </c>
+      <c r="L33" s="19">
+        <v>23</v>
+      </c>
+      <c r="M33" s="18"/>
+      <c r="N33" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="46">
+        <v>24</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="23">
+        <f t="shared" si="0"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="E34" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="23">
+        <f t="shared" si="3"/>
+        <v>59760.000000000007</v>
+      </c>
+      <c r="G34" s="70">
+        <f t="shared" si="2"/>
+        <v>-1.0186340659856796E-10</v>
+      </c>
+      <c r="H34" s="71">
+        <f t="shared" si="4"/>
+        <v>501.85950000000003</v>
+      </c>
+      <c r="I34" s="72">
+        <f t="shared" si="5"/>
+        <v>-1.8474111129762605E-13</v>
+      </c>
+      <c r="J34" s="73">
+        <f t="shared" si="6"/>
+        <v>501.85950000000003</v>
+      </c>
+      <c r="L34" s="22">
+        <v>24</v>
+      </c>
+      <c r="M34" s="23"/>
+      <c r="N34" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="D35" s="50">
+        <f>SUM(D11:D34)</f>
+        <v>1015920.0000000001</v>
+      </c>
+      <c r="E35" s="50">
+        <f>SUM(E11:E22)</f>
+        <v>-1278000</v>
+      </c>
+      <c r="F35" s="26">
+        <f t="shared" si="3"/>
+        <v>-262079.99999999988</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="E36" s="51">
+        <f>D35+E35</f>
+        <v>-262079.99999999988</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="N36" s="52">
+        <f>E36/N23</f>
+        <v>3600</v>
+      </c>
+      <c r="O36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="N37" s="52">
+        <f>N36/60</f>
+        <v>60</v>
+      </c>
+      <c r="O37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="84"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
